--- a/part 1/11 genetherapy.xlsx
+++ b/part 1/11 genetherapy.xlsx
@@ -5,10 +5,10 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruslan/Documents/Основы статистики/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruslan/Documents/Основы статистики/part 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{A340B065-514A-4A46-8459-A2C25FCBD3E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{7A7E0728-CA94-8848-BD97-7725E6473874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1009,10 +1009,17 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
